--- a/Data/EC/NIT-8909325396.xlsx
+++ b/Data/EC/NIT-8909325396.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6379A868-BA73-4152-AAED-BD2475852482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{384F3917-36C1-4FC0-A555-C1BF19AAA8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A6F60C14-0981-4C3E-88D5-785C22D17AF1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7B38A098-E388-404E-B939-69B597919EF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,60 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73200347</t>
+  </si>
+  <si>
+    <t>ALEJANDRO DANIEL ARGUMEDO SANTIAGO</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>8834190</t>
+  </si>
+  <si>
+    <t>ALEXANDER LLAMAS HERRERA</t>
+  </si>
+  <si>
+    <t>73556080</t>
+  </si>
+  <si>
+    <t>FREDY RIOS CERDA</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>73130957</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL MARTINEZ HERRERA</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>73166297</t>
+  </si>
+  <si>
+    <t>JULIAN JOSE NAVAS HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>1063079619</t>
   </si>
   <si>
@@ -74,103 +128,31 @@
     <t>2206</t>
   </si>
   <si>
+    <t>1001898312</t>
+  </si>
+  <si>
+    <t>LUIS DAVID AVILA GUARDO</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
     <t>1050954511</t>
   </si>
   <si>
     <t>JUAN MARIO MEDINA BARRIOS</t>
   </si>
   <si>
+    <t>2309</t>
+  </si>
+  <si>
     <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>73200347</t>
-  </si>
-  <si>
-    <t>ALEJANDRO DANIEL ARGUMEDO SANTIAGO</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>73166297</t>
-  </si>
-  <si>
-    <t>JULIAN JOSE NAVAS HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>8834190</t>
-  </si>
-  <si>
-    <t>ALEXANDER LLAMAS HERRERA</t>
-  </si>
-  <si>
-    <t>73556080</t>
-  </si>
-  <si>
-    <t>FREDY RIOS CERDA</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1143361562</t>
-  </si>
-  <si>
-    <t>JOSE GREGORIO GONZALEZ QUINTERO</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>73130957</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL MARTINEZ HERRERA</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>1001898312</t>
-  </si>
-  <si>
-    <t>LUIS DAVID AVILA GUARDO</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>72252816</t>
-  </si>
-  <si>
-    <t>RAFAEL ENRIQUE TORRADO ALVIS</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -269,7 +251,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -282,9 +266,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -484,23 +466,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,10 +510,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09090DCB-E6F4-7F3C-B3E6-A53295B17C31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177341D4-63D3-0ADE-A943-A020219C3BD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,8 +917,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72332E8-D6C4-4A6B-B724-834521F24D4C}">
-  <dimension ref="B2:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CE1E68-2F68-4100-8FB4-6AA1EBBA8765}">
+  <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -960,7 +942,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1005,7 +987,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1037,12 +1019,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>823507</v>
+        <v>652687</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1053,17 +1035,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F13" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1090,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1113,10 +1095,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24000</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1133,13 +1115,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1150,19 +1132,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1173,19 +1155,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>9363</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1196,16 +1178,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F20" s="18">
-        <v>8193</v>
+        <v>35112</v>
       </c>
       <c r="G20" s="18">
         <v>908526</v>
@@ -1219,19 +1201,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1242,13 +1224,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1265,19 +1247,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1288,13 +1270,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1311,19 +1293,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1334,19 +1316,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
-        <v>56940</v>
+        <v>35112</v>
       </c>
       <c r="G26" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1357,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>5852</v>
@@ -1380,19 +1362,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
-        <v>35112</v>
+        <v>8193</v>
       </c>
       <c r="G28" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1403,19 +1385,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
-        <v>35112</v>
+        <v>24000</v>
       </c>
       <c r="G29" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1426,19 +1408,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F30" s="18">
-        <v>35112</v>
+        <v>5333</v>
       </c>
       <c r="G30" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1449,19 +1431,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F31" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G31" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1472,19 +1454,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F32" s="18">
-        <v>9363</v>
+        <v>80000</v>
       </c>
       <c r="G32" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1495,144 +1477,75 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="F33" s="18">
-        <v>80000</v>
+        <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="17" t="s">
+      <c r="B34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="18">
-        <v>5333</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G36" s="18">
+      <c r="F34" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G34" s="24">
         <v>1423500</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G37" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="H42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="H43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="H39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="H40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8909325396.xlsx
+++ b/Data/EC/NIT-8909325396.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{384F3917-36C1-4FC0-A555-C1BF19AAA8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1FCD404-11A1-4D1F-B055-A229AC5BEE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7B38A098-E388-404E-B939-69B597919EF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{692A6403-DA23-41B3-9562-E316BCAFD817}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -251,9 +251,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -266,7 +264,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -460,29 +460,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,19 +501,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,7 +572,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177341D4-63D3-0ADE-A943-A020219C3BD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F9E372-50CC-561F-72EC-E16A5E266A13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CE1E68-2F68-4100-8FB4-6AA1EBBA8765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235B5EF7-BBE1-4E53-9B22-D017E9970B8D}">
   <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -940,49 +946,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -990,7 +996,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8909325396</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>652687</v>
       </c>
@@ -1091,18 +1097,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>33125</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>908526</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1114,18 +1120,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>33125</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>908526</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1137,18 +1143,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>35112</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>908526</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1160,18 +1166,18 @@
       <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>9363</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>877803</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1183,18 +1189,18 @@
       <c r="D20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>35112</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>908526</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1206,18 +1212,18 @@
       <c r="D21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>35112</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>877803</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1229,18 +1235,18 @@
       <c r="D22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>35112</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>908526</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1252,18 +1258,18 @@
       <c r="D23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>35112</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>877803</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1275,18 +1281,18 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>35112</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>908526</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1298,18 +1304,18 @@
       <c r="D25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>35112</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>877803</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1321,18 +1327,18 @@
       <c r="D26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>35112</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>877803</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1344,18 +1350,18 @@
       <c r="D27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>5852</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>877803</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1367,18 +1373,18 @@
       <c r="D28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>8193</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>908526</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1390,18 +1396,18 @@
       <c r="D29" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>24000</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1423500</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1413,18 +1419,18 @@
       <c r="D30" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>5333</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1300000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1436,18 +1442,18 @@
       <c r="D31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>80000</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>1300000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1459,18 +1465,18 @@
       <c r="D32" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>80000</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>1300000</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1482,47 +1488,47 @@
       <c r="D33" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>46400</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>1423500</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="26">
         <v>46400</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="26">
         <v>1423500</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="34"/>
       <c r="H39" s="1" t="s">
         <v>48</v>
       </c>
@@ -1530,10 +1536,10 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="32"/>
+      <c r="C40" s="34"/>
       <c r="H40" s="1" t="s">
         <v>49</v>
       </c>
